--- a/latin-parallel/psalms-english/=progress-english.xlsx
+++ b/latin-parallel/psalms-english/=progress-english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cojor\Google Drive\Sacred Music - Jorgensen\santissimo-nome\latin-parallel\psalms-english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Documents\santissimo-nome\latin-parallel\psalms-english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2EBE301-6B0B-4F62-8033-2B8A9E5942C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10451C1A-4EB5-4B3A-83CD-64BB3BC4EFAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52230" yWindow="3840" windowWidth="8715" windowHeight="13260" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
+    <workbookView xWindow="13944" yWindow="480" windowWidth="8964" windowHeight="11844" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,6 +1099,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1183,6 +1189,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,18 +1510,18 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1529,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1534,35 +1543,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1660,7 +1669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>89</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>113</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -1940,7 +1949,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>121</v>
       </c>
@@ -1948,7 +1957,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1990,7 +1999,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2004,7 +2013,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -2074,7 +2083,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -2088,7 +2097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -2158,7 +2167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
@@ -2214,7 +2223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>89</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>97</v>
       </c>
@@ -2298,7 +2307,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>101</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>199</v>
       </c>
@@ -2376,7 +2385,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2418,7 +2427,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
@@ -2432,7 +2441,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>17</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -2460,7 +2469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
@@ -2516,7 +2525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>45</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>49</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>57</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>61</v>
       </c>
@@ -2600,7 +2609,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>69</v>
       </c>
@@ -2628,7 +2637,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>73</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>93</v>
       </c>
@@ -2712,7 +2721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>97</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>101</v>
       </c>
@@ -2740,7 +2749,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>255</v>
       </c>
@@ -2754,7 +2763,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>113</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>117</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>261</v>
       </c>
@@ -2790,7 +2799,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -2804,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -2818,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>13</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>25</v>
       </c>
@@ -2888,7 +2897,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>29</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>33</v>
       </c>
@@ -2916,7 +2925,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>37</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>45</v>
       </c>
@@ -2958,7 +2967,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>49</v>
       </c>
@@ -2972,7 +2981,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>53</v>
       </c>
@@ -2986,7 +2995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>57</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>61</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>65</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>69</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>73</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>77</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>81</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>85</v>
       </c>
@@ -3098,7 +3107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>304</v>
       </c>
@@ -3112,7 +3121,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>308</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3149,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>97</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>101</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>105</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>109</v>
       </c>
@@ -3196,7 +3205,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>113</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>117</v>
       </c>
